--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Angular Repos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Angular Repos T25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D52CBA7-B57F-485B-96CD-295AE49640A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D5BCD0-8726-4730-8784-D747D4AC24D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,10 +1923,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA510FC-BD66-42D5-B8C5-14539F172AC2}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
